--- a/Assets/04YJE/02Scripts/Shop/ShopItemDB.xlsx
+++ b/Assets/04YJE/02Scripts/Shop/ShopItemDB.xlsx
@@ -4,6 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="entities" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="entities2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="entities3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,36 +13,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>itemID</t>
-  </si>
-  <si>
-    <t>itemName</t>
-  </si>
-  <si>
-    <t>itemInfo</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>attackDamage</t>
-  </si>
-  <si>
-    <t>diffence</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>hpRate</t>
-  </si>
-  <si>
-    <t>criticalDamage</t>
-  </si>
-  <si>
-    <t>criticalRate</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>ItemInfo</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>AttackDamage</t>
+  </si>
+  <si>
+    <t>Deffence</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HPRate</t>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+  </si>
+  <si>
+    <t>DashCoolTime</t>
+  </si>
+  <si>
+    <t>ItemCoolTimeDropRate</t>
   </si>
   <si>
     <t>체력 회복 물약1</t>
@@ -95,6 +106,54 @@
   </si>
   <si>
     <t xml:space="preserve">크리티컬 대미지 10% 증가 </t>
+  </si>
+  <si>
+    <t>공격력 증가 책</t>
+  </si>
+  <si>
+    <t>공격력 2 증가</t>
+  </si>
+  <si>
+    <t>방어력 증가 책</t>
+  </si>
+  <si>
+    <t>방어력 5 증가</t>
+  </si>
+  <si>
+    <t>체력 증가 책</t>
+  </si>
+  <si>
+    <t>HP 100 증가</t>
+  </si>
+  <si>
+    <t>크리티컬 증가 책</t>
+  </si>
+  <si>
+    <t>크리티컬 확률 0.1% 증가</t>
+  </si>
+  <si>
+    <t>크리티컬 대미지 증가 책</t>
+  </si>
+  <si>
+    <t>크리티컬 대미지 0.5% 증가</t>
+  </si>
+  <si>
+    <t>대시 재사용 대기시간 감소 책</t>
+  </si>
+  <si>
+    <t>대시 재사용 대기시간 0.3초 감소</t>
+  </si>
+  <si>
+    <t>아이템 재사용 대기시간 감소 책</t>
+  </si>
+  <si>
+    <t>아이템 재사용 대기시간 0.5% 감소</t>
+  </si>
+  <si>
+    <t>UpgradeLevel</t>
+  </si>
+  <si>
+    <t>SuccessRate</t>
   </si>
 </sst>
 </file>
@@ -118,12 +177,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,9 +197,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -145,6 +213,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -154,6 +231,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -364,6 +449,7 @@
     <col customWidth="1" min="1" max="1" width="5.88"/>
     <col customWidth="1" min="2" max="2" width="20.75"/>
     <col customWidth="1" min="3" max="3" width="32.25"/>
+    <col customWidth="1" min="13" max="13" width="18.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -397,293 +483,1113 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1000.0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>1001.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>700.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>1002.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>1100.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>550.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>1101.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1500.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>1200.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>1201.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>1202.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>1203.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>1300.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>1301.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>1302.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>1303.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>1304.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7000.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>1305.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>1306.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>-0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.88"/>
+    <col customWidth="1" min="2" max="2" width="24.5"/>
+    <col customWidth="1" min="4" max="4" width="5.63"/>
+    <col customWidth="1" min="5" max="5" width="8.13"/>
+    <col customWidth="1" min="6" max="6" width="11.88"/>
+    <col customWidth="1" min="7" max="7" width="7.63"/>
+    <col customWidth="1" min="8" max="8" width="5.25"/>
+    <col customWidth="1" min="10" max="10" width="12.38"/>
+    <col customWidth="1" min="11" max="11" width="12.0"/>
+    <col customWidth="1" min="12" max="13" width="18.5"/>
+    <col customWidth="1" min="14" max="14" width="10.88"/>
+    <col customWidth="1" min="15" max="15" width="8.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1300.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>1001.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>700.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="A3" s="2">
+        <v>1301.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>1002.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="2">
+        <v>1302.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>1303.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2">
         <v>5000.0</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.0</v>
+      <c r="E5" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>1304.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7000.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>1305.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>1306.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100000.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>1100.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>550.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.0</v>
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200000.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>1101.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1500.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>1200.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>1201.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>1202.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>1203.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10000.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.0</v>
+      <c r="A6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>400000.0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/04YJE/02Scripts/Shop/ShopItemDB.xlsx
+++ b/Assets/04YJE/02Scripts/Shop/ShopItemDB.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GSTAR2024\GstarPrototype\Assets\04YJE\02Scripts\Shop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB814F7-BB43-4C0E-843D-6FDD62B17605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="entities" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="entities2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="entities3" sheetId="3" r:id="rId6"/>
+    <sheet name="entities" sheetId="1" r:id="rId1"/>
+    <sheet name="entities2" sheetId="2" r:id="rId2"/>
+    <sheet name="entities3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>ItemID</t>
   </si>
@@ -154,27 +163,55 @@
   </si>
   <si>
     <t>SuccessRate</t>
+  </si>
+  <si>
+    <t>IsAuto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecoveryThreshold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecoveryCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,7 +219,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -192,58 +229,46 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -433,26 +458,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.88"/>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="3" width="32.25"/>
-    <col customWidth="1" min="13" max="13" width="18.5"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,28 +504,37 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -504,39 +543,48 @@
         <v>14</v>
       </c>
       <c r="D2" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0.0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -545,39 +593,48 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0.0</v>
+        <v>500</v>
       </c>
       <c r="L3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1002.0</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -586,39 +643,48 @@
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0.0</v>
+        <v>100</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -627,39 +693,48 @@
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>15</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0.0</v>
+        <v>10</v>
       </c>
       <c r="M5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1101.0</v>
+        <v>1101</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -668,39 +743,48 @@
         <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="E6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>0.0</v>
+        <v>500</v>
       </c>
       <c r="L6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -709,244 +793,298 @@
         <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="G7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1201.0</v>
+        <v>1201</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.0</v>
+        <v>20</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1202.0</v>
+        <v>1202</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>3.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1203.0</v>
+        <v>1203</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="2">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>10.0</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>10</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1300.0</v>
+        <v>1300</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="E11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>1301.0</v>
+        <v>1301</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.0</v>
+        <v>5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1302.0</v>
+        <v>1302</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
@@ -955,121 +1093,148 @@
         <v>36</v>
       </c>
       <c r="D13" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0.0</v>
+        <v>100</v>
       </c>
       <c r="L13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1303.0</v>
+        <v>1303</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="2">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>0.1</v>
       </c>
-      <c r="K14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>1304.0</v>
+        <v>1304</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="2">
-        <v>7000.0</v>
+        <v>7000</v>
       </c>
       <c r="E15" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
       </c>
       <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
         <v>0.5</v>
       </c>
-      <c r="L15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>1305.0</v>
+        <v>1305</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -1078,107 +1243,127 @@
         <v>42</v>
       </c>
       <c r="D16" s="2">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <v>-0.3</v>
       </c>
-      <c r="M16" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1306.0</v>
+        <v>1306</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="2">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="E17" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
         <v>-0.5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.88"/>
-    <col customWidth="1" min="2" max="2" width="24.5"/>
-    <col customWidth="1" min="4" max="4" width="5.63"/>
-    <col customWidth="1" min="5" max="5" width="8.13"/>
-    <col customWidth="1" min="6" max="6" width="11.88"/>
-    <col customWidth="1" min="7" max="7" width="7.63"/>
-    <col customWidth="1" min="8" max="8" width="5.25"/>
-    <col customWidth="1" min="10" max="10" width="12.38"/>
-    <col customWidth="1" min="11" max="11" width="12.0"/>
-    <col customWidth="1" min="12" max="13" width="18.5"/>
-    <col customWidth="1" min="14" max="14" width="10.88"/>
-    <col customWidth="1" min="15" max="15" width="8.0"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,93 +1404,93 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1300.0</v>
+        <v>1300</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1301.0</v>
+        <v>1301</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1302.0</v>
+        <v>1302</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
@@ -1314,124 +1499,124 @@
         <v>36</v>
       </c>
       <c r="D4" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1303.0</v>
+        <v>1303</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="2">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="E5" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>0.1</v>
       </c>
       <c r="K5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1304.0</v>
+        <v>1304</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>7000.0</v>
+        <v>7000</v>
       </c>
       <c r="E6" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <v>0.5</v>
       </c>
       <c r="L6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1305.0</v>
+        <v>1305</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
@@ -1440,93 +1625,95 @@
         <v>42</v>
       </c>
       <c r="D7" s="2">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>-0.3</v>
       </c>
       <c r="M7" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1306.0</v>
+        <v>1306</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="E8" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>-0.5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1537,62 +1724,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>50000.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>100000.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>200000.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>0.4</v>
       </c>
       <c r="C6" s="2">
-        <v>400000.0</v>
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/04YJE/02Scripts/Shop/ShopItemDB.xlsx
+++ b/Assets/04YJE/02Scripts/Shop/ShopItemDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\GSTAR2024\GstarPrototype\Assets\04YJE\02Scripts\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB814F7-BB43-4C0E-843D-6FDD62B17605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233221B-CB5B-45ED-AC14-50CC12C0F271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1709,7 +1709,9 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1769,15 +1771,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>400000</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
